--- a/00.기획서/221115_스테이지0 기획서_미완성.xlsx
+++ b/00.기획서/221115_스테이지0 기획서_미완성.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\RoketTeam\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="11730" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0. 목차" sheetId="7" r:id="rId1"/>
-    <sheet name="1. 스테이지0" sheetId="2" r:id="rId2"/>
+    <sheet name="1.스테이지0" sheetId="2" r:id="rId2"/>
     <sheet name="2.VPS연출" sheetId="9" r:id="rId3"/>
     <sheet name="3.방명록 연출" sheetId="10" r:id="rId4"/>
     <sheet name="3. date" sheetId="3" r:id="rId5"/>
@@ -5440,7 +5440,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="307">
   <si>
     <t>속을 알 수 없는 하나와의 첫 데이트. 튜토리얼로 플레이어에게 모든 기능을 체험시켜줌.</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -6596,19 +6596,94 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>3.방명록 연출</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">4. 하트가 상공 1.5m~2m 사이 높낮이와 크기가 각기 다른 형태로 도로(좌우 벚꽃나무의 사이)에 출현한다. (아래 사진 처럼) </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지0 방명록 연출 기획</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.방명록 연출</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. date</t>
+    <t xml:space="preserve">   ㄴ 1차 프로토타입 때 보니까 크기가 약간 큰 거 같아요 size 다르게 하실 때 한 80%~100% 안에서 조절 부탁드립니다 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이 위치 시각화 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상 적인 플레이 위치를 표시. 완벽히 들어맞을 필요는 없고 오차 범위의 기준점이 되는 곳이라고 생각하면 됨.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">연출 위치 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획 의도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">데이트하면서 옛날 방명록 감성 느껴보라고… </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이디야 카페 앞 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지0 - 방명록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기능 설명 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UI </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒷 배경 블러처리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">방명록 거절 버튼 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">색상 4개 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">흰색 화이트보드 위에 펜으로 그리고 지울 수 있으며, 완료 시 해당 이미지가 건물 벽에 적용  </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">방명록 팝업 UI가 등장했을 때 인게임 플레이 화면이 blur 처리해야 함 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">뒤로가기 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">확인버튼 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤로가기 -&gt; 호감도 하락</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">확인 시 -&gt; 호감도 상승 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 순서</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -7209,9 +7284,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -7221,46 +7293,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7273,15 +7309,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7326,6 +7353,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7343,15 +7481,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7383,113 +7512,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7500,11 +7527,59 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7512,6 +7587,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF33CC"/>
+      <color rgb="FF0099FF"/>
+      <color rgb="FFFF66CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -7637,15 +7719,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>661147</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>493479</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>40531</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>605537</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>74147</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7662,8 +7744,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2185147" y="12697385"/>
-          <a:ext cx="10119332" cy="7421846"/>
+          <a:off x="1613647" y="10824881"/>
+          <a:ext cx="10085714" cy="7447619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7673,6 +7755,44 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47012</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1557618" y="3910853"/>
+          <a:ext cx="11710147" cy="5885277"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -7905,15 +8025,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>15681</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>36443</xdr:rowOff>
+      <xdr:colOff>65377</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>148536</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>11726</xdr:rowOff>
+      <xdr:colOff>198232</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>127682</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7922,8 +8042,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1539681" y="8377030"/>
-          <a:ext cx="8224964" cy="3909522"/>
+          <a:off x="1589377" y="8754717"/>
+          <a:ext cx="8224964" cy="3854856"/>
           <a:chOff x="1539679" y="8443291"/>
           <a:chExt cx="8109007" cy="3909522"/>
         </a:xfrm>
@@ -8266,6 +8386,183 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="직사각형 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600450" y="7172325"/>
+          <a:ext cx="3238500" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>190089</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>46818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12144375" y="3705225"/>
+          <a:ext cx="3285714" cy="6457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>514818</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8286750" y="3019425"/>
+          <a:ext cx="3353268" cy="1914792"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>36661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524750" y="6762750"/>
+          <a:ext cx="3829050" cy="3389461"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -8531,7 +8828,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:P32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8540,569 +8839,576 @@
   <sheetData>
     <row r="1" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="61" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="42"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="63"/>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C3" s="43"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="45"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="66"/>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="48"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="26"/>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C5" s="46"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="48"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="26"/>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="48"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="26"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="48"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="26"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="48"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="26"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="48"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="26"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="48"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="26"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="49" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="67" t="s">
         <v>218</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51" t="s">
+      <c r="F11" s="68"/>
+      <c r="G11" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="49" t="s">
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="O11" s="50"/>
-      <c r="P11" s="48"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="26"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="54" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="72" t="s">
         <v>221</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="56" t="s">
+      <c r="F12" s="73"/>
+      <c r="G12" s="74" t="s">
         <v>235</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57" t="s">
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="O12" s="58"/>
-      <c r="P12" s="48"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="26"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="60" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="56" t="s">
         <v>236</v>
       </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="59" t="s">
+      <c r="F13" s="57"/>
+      <c r="G13" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="62" t="s">
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="O13" s="63"/>
-      <c r="P13" s="48"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="26"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="60" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="59" t="s">
+      <c r="F14" s="57"/>
+      <c r="G14" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="64" t="s">
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="O14" s="65" t="s">
+      <c r="O14" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="P14" s="48"/>
+      <c r="P14" s="26"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="66" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="68" t="s">
+      <c r="F15" s="51"/>
+      <c r="G15" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="69" t="s">
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="O15" s="70"/>
-      <c r="P15" s="48"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="26"/>
     </row>
     <row r="16" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="71"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="73"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="31"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="48"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="26"/>
     </row>
     <row r="18" spans="3:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="75" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="J18" s="75"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="48"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="26"/>
     </row>
     <row r="19" spans="3:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="48"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="26"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="48"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="26"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="77" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="H21" s="47" t="s">
+      <c r="H21" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="48"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="26"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="77" t="s">
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="H22" s="47" t="s">
+      <c r="H22" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="48"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="26"/>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="77" t="s">
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="H23" s="47" t="s">
+      <c r="H23" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="48"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="26"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47" t="s">
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="48"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="26"/>
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="78" t="s">
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="H25" s="47" t="s">
+      <c r="H25" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="48"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="26"/>
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C26" s="46"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="78" t="s">
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="H26" s="47" t="s">
+      <c r="H26" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="48"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="26"/>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C27" s="46"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="99" t="s">
-        <v>286</v>
-      </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="48"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="26"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C28" s="46"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="48"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="26"/>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C29" s="46"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="48"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="26"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C30" s="46"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="48"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="26"/>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C31" s="46"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47" t="s">
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="48"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="26"/>
     </row>
     <row r="32" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="71"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="73"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:P3"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="N12:O12"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:M15"/>
     <mergeCell ref="N15:O15"/>
@@ -9112,13 +9418,6 @@
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:M14"/>
-    <mergeCell ref="C2:P3"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="N12:O12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9129,10 +9428,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:T39"/>
+  <dimension ref="C2:T60"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:T3"/>
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9141,68 +9440,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="77" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
     </row>
     <row r="3" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
     </row>
     <row r="5" spans="3:20" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
     </row>
     <row r="6" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
@@ -9213,25 +9512,25 @@
       </c>
     </row>
     <row r="7" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="81"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
     </row>
     <row r="8" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
@@ -9242,25 +9541,25 @@
       </c>
     </row>
     <row r="9" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="82"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="81"/>
-      <c r="T9" s="81"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
     </row>
     <row r="10" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
@@ -9269,43 +9568,43 @@
       <c r="D10" t="s">
         <v>249</v>
       </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="80"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
     </row>
     <row r="11" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>270</v>
       </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="80"/>
-      <c r="R11" s="80"/>
-      <c r="S11" s="80"/>
-      <c r="T11" s="80"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
     </row>
     <row r="12" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
@@ -9315,9 +9614,36 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="4:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D39" t="s">
+    <row r="33" spans="4:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C59" s="1"/>
+      <c r="D59" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+    </row>
+    <row r="60" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -9332,11 +9658,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:Q63"/>
+  <dimension ref="C2:Q62"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O55" sqref="O55"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9350,119 +9674,119 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="78" t="s">
         <v>252</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
     </row>
     <row r="3" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
     </row>
     <row r="5" spans="3:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="84"/>
-      <c r="D5" s="85" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="3:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C6" s="39"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="43" t="s">
         <v>265</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C8" s="39"/>
-      <c r="D8" s="37" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C9" s="39"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="D10" s="88" t="s">
+      <c r="D10" s="44" t="s">
         <v>266</v>
       </c>
     </row>
@@ -9477,10 +9801,10 @@
       </c>
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="D14" s="44" t="s">
         <v>268</v>
       </c>
     </row>
@@ -9500,96 +9824,96 @@
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D19" s="88"/>
+      <c r="D19" s="44"/>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D21" s="88"/>
+      <c r="D21" s="44"/>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D22" s="88"/>
+      <c r="D22" s="44"/>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D23" s="88"/>
+      <c r="D23" s="44"/>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D24" s="88"/>
+      <c r="D24" s="44"/>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D25" s="88"/>
+      <c r="D25" s="44"/>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D26" s="88"/>
+      <c r="D26" s="44"/>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D27" s="88"/>
+      <c r="D27" s="44"/>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D28" s="88"/>
+      <c r="D28" s="44"/>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D29" s="88"/>
+      <c r="D29" s="44"/>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D30" s="88"/>
+      <c r="D30" s="44"/>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D31" s="88"/>
+      <c r="D31" s="44"/>
     </row>
     <row r="32" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D32" s="88"/>
+      <c r="D32" s="44"/>
     </row>
     <row r="33" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="D33" s="88"/>
+      <c r="D33" s="44"/>
     </row>
     <row r="34" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="D34" s="88"/>
+      <c r="D34" s="44"/>
     </row>
     <row r="35" spans="3:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="84"/>
-      <c r="D35" s="85" t="s">
+      <c r="C35" s="40"/>
+      <c r="D35" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C36" s="89"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
     </row>
     <row r="37" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C37" s="94" t="s">
+      <c r="C37" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="D37" s="87" t="s">
+      <c r="D37" s="43" t="s">
         <v>272</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
     </row>
     <row r="38" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
@@ -9607,105 +9931,110 @@
       </c>
     </row>
     <row r="41" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="D41" s="80" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C58" s="94" t="s">
+      <c r="D41" s="37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="D42" s="37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C57" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="D58" s="88" t="s">
+      <c r="D57" s="44" t="s">
         <v>273</v>
       </c>
     </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="D59" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="E59" s="79" t="s">
+        <v>259</v>
+      </c>
+      <c r="F59" s="80"/>
+      <c r="G59" s="80"/>
+      <c r="H59" s="80"/>
+      <c r="I59" s="80"/>
+      <c r="J59" s="81"/>
+      <c r="K59" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="L59" s="85"/>
+      <c r="M59" s="85"/>
+      <c r="N59" s="85"/>
+    </row>
     <row r="60" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="D60" s="90" t="s">
-        <v>275</v>
-      </c>
-      <c r="E60" s="95" t="s">
-        <v>259</v>
-      </c>
-      <c r="F60" s="96"/>
-      <c r="G60" s="96"/>
-      <c r="H60" s="96"/>
-      <c r="I60" s="96"/>
-      <c r="J60" s="97"/>
-      <c r="K60" s="92" t="s">
-        <v>260</v>
-      </c>
-      <c r="L60" s="92"/>
-      <c r="M60" s="92"/>
-      <c r="N60" s="92"/>
+      <c r="D60" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E60" s="82" t="s">
+        <v>280</v>
+      </c>
+      <c r="F60" s="83"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="83"/>
+      <c r="J60" s="84"/>
+      <c r="K60" s="86" t="s">
+        <v>282</v>
+      </c>
+      <c r="L60" s="86"/>
+      <c r="M60" s="86"/>
+      <c r="N60" s="86"/>
     </row>
     <row r="61" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="D61" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="E61" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="98"/>
-      <c r="K61" s="91" t="s">
-        <v>282</v>
-      </c>
-      <c r="L61" s="91"/>
-      <c r="M61" s="91"/>
-      <c r="N61" s="91"/>
+      <c r="D61" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E61" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="F61" s="83"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="83"/>
+      <c r="J61" s="84"/>
+      <c r="K61" s="86" t="s">
+        <v>281</v>
+      </c>
+      <c r="L61" s="86"/>
+      <c r="M61" s="86"/>
+      <c r="N61" s="86"/>
     </row>
     <row r="62" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="D62" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="E62" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="98"/>
-      <c r="K62" s="91" t="s">
-        <v>281</v>
-      </c>
-      <c r="L62" s="91"/>
-      <c r="M62" s="91"/>
-      <c r="N62" s="91"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="D63" s="21" t="s">
+      <c r="D62" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="E63" s="23" t="s">
+      <c r="E62" s="82" t="s">
         <v>262</v>
       </c>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="98"/>
-      <c r="K63" s="91" t="s">
+      <c r="F62" s="83"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="83"/>
+      <c r="I62" s="83"/>
+      <c r="J62" s="84"/>
+      <c r="K62" s="86" t="s">
         <v>263</v>
       </c>
-      <c r="L63" s="91"/>
-      <c r="M63" s="91"/>
-      <c r="N63" s="91"/>
+      <c r="L62" s="86"/>
+      <c r="M62" s="86"/>
+      <c r="N62" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="C2:Q3"/>
+    <mergeCell ref="E59:J59"/>
     <mergeCell ref="E60:J60"/>
     <mergeCell ref="E61:J61"/>
     <mergeCell ref="E62:J62"/>
-    <mergeCell ref="E63:J63"/>
+    <mergeCell ref="K59:N59"/>
     <mergeCell ref="K60:N60"/>
     <mergeCell ref="K61:N61"/>
     <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9716,55 +10045,186 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S3"/>
+  <dimension ref="B2:S45"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="B2" s="77" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+    </row>
+    <row r="5" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="40"/>
+      <c r="C5" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="40"/>
+      <c r="C13" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>298</v>
+      </c>
+      <c r="E20" t="s">
+        <v>299</v>
+      </c>
+      <c r="F20" t="s">
+        <v>302</v>
+      </c>
+      <c r="G20" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="40"/>
+      <c r="C45" s="41" t="s">
+        <v>306</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9772,6 +10232,8 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9812,534 +10274,534 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8" t="s">
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="93"/>
+      <c r="K2" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="11" t="s">
+      <c r="L2" s="95"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="8" t="s">
+      <c r="X2" s="91"/>
+      <c r="Y2" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="12" t="s">
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-    </row>
-    <row r="3" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="99"/>
+      <c r="AG2" s="99"/>
+    </row>
+    <row r="3" spans="2:33" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="T3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="U3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="W3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="X3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Y3" s="16" t="s">
+      <c r="Y3" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="19" t="s">
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AC3" s="14" t="s">
+      <c r="AC3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AD3" s="14" t="s">
+      <c r="AD3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AE3" s="14" t="s">
+      <c r="AE3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AF3" s="14" t="s">
+      <c r="AF3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="14" t="s">
+      <c r="AG3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="21" t="s">
+    <row r="4" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="21" t="s">
+      <c r="S4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="T4" s="21" t="s">
+      <c r="T4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="21" t="s">
+      <c r="U4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="21" t="s">
+      <c r="V4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="W4" s="21" t="s">
+      <c r="W4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="X4" s="22" t="s">
+      <c r="X4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="Y4" s="23" t="s">
+      <c r="Y4" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="22" t="s">
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AC4" s="21" t="s">
+      <c r="AC4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AD4" s="21" t="s">
+      <c r="AD4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AE4" s="21" t="s">
+      <c r="AE4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AF4" s="21" t="s">
+      <c r="AF4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AG4" s="21" t="s">
+      <c r="AG4" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="27">
+    <row r="5" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="11">
         <v>0</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="27">
+      <c r="D5" s="8"/>
+      <c r="E5" s="11">
         <v>37.539976000000003</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="11">
         <v>127.122929</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8">
         <v>0</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B6" s="31">
+      <c r="B6" s="15">
         <v>1</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="8">
         <v>3</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="15">
         <v>37.540004000000003</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="15">
         <v>127.1231123</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="8">
         <v>2</v>
       </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="23">
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="82">
         <v>1</v>
       </c>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="90"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
     </row>
     <row r="7" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B7" s="31">
+      <c r="B7" s="15">
         <v>2</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="8">
         <v>4</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="18">
         <v>37.539909999999999</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="15">
         <v>127.123762</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="21">
+      <c r="H7" s="15"/>
+      <c r="I7" s="8">
         <v>3</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="8">
         <v>6</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="35" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="90"/>
+      <c r="AB7" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="AC7" s="31">
+      <c r="AC7" s="15">
         <v>1</v>
       </c>
-      <c r="AD7" s="31">
+      <c r="AD7" s="15">
         <v>4</v>
       </c>
-      <c r="AE7" s="31" t="s">
+      <c r="AE7" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AF7" s="31">
+      <c r="AF7" s="15">
         <v>2</v>
       </c>
-      <c r="AG7" s="31">
+      <c r="AG7" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B8" s="31">
+      <c r="B8" s="15">
         <v>3</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="15">
         <v>37.540762000000001</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="15">
         <v>127.12388799999999</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="8">
         <v>7</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="8">
         <v>11</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="15">
         <v>1</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="15">
         <v>8</v>
       </c>
-      <c r="O8" s="31" t="s">
+      <c r="O8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="31" t="s">
+      <c r="P8" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q8" s="15">
         <v>1</v>
       </c>
-      <c r="R8" s="31">
+      <c r="R8" s="15">
         <v>9</v>
       </c>
-      <c r="S8" s="31" t="s">
+      <c r="S8" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="T8" s="31" t="s">
+      <c r="T8" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="U8" s="31">
+      <c r="U8" s="15">
         <v>2</v>
       </c>
-      <c r="V8" s="31">
+      <c r="V8" s="15">
         <v>10</v>
       </c>
-      <c r="W8" s="32"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="31"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B9" s="31">
+      <c r="B9" s="15">
         <v>4</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="8">
         <v>2</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="15">
         <v>37.540891000000002</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="15">
         <v>127.12374699999999</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="8">
         <v>12</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="8">
         <v>15</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="32">
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="16">
         <v>14</v>
       </c>
-      <c r="X9" s="33">
+      <c r="X9" s="17">
         <v>13</v>
       </c>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
@@ -10348,18 +10810,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y6:AA6"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB2:AG2"/>
     <mergeCell ref="Y9:AA9"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="Y8:AA8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10378,1635 +10840,1635 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9" style="26"/>
+    <col min="3" max="3" width="9" style="10"/>
     <col min="4" max="4" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="37">
+      <c r="B4" s="21">
         <v>0</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="37">
+      <c r="B5" s="21">
         <v>0</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="37">
+      <c r="B6" s="21">
         <v>0</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="23" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="39">
+      <c r="B7" s="23">
         <v>0</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="23" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="37">
+      <c r="B8" s="21">
         <v>0</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="21" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="37">
+      <c r="B9" s="21">
         <v>1</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="39">
+      <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="39">
+      <c r="B11" s="23">
         <v>1</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="23" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="39">
+      <c r="B12" s="23">
         <v>1</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="23" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="39">
+      <c r="B13" s="23">
         <v>1</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="23" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="39">
+      <c r="B14" s="23">
         <v>1</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="23" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="39">
+      <c r="B15" s="23">
         <v>1</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="39">
+      <c r="B16" s="23">
         <v>1</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="39">
+      <c r="B17" s="23">
         <v>1</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="23" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="39">
+      <c r="B18" s="23">
         <v>1</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="23" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="39">
+      <c r="B19" s="23">
         <v>1</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="23" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="39">
+      <c r="B20" s="23">
         <v>1</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="39">
+      <c r="B21" s="23">
         <v>1</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="23" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="39">
+      <c r="B22" s="23">
         <v>1</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="23" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="39">
+      <c r="B23" s="23">
         <v>1</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="39">
+      <c r="B24" s="23">
         <v>1</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="23" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="39">
+      <c r="B25" s="23">
         <v>1</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="39">
+      <c r="B26" s="23">
         <v>1</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="23" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="39">
+      <c r="B27" s="23">
         <v>1</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="39">
+      <c r="B28" s="23">
         <v>1</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="23" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="39">
+      <c r="B29" s="23">
         <v>1</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="23" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="39">
+      <c r="B30" s="23">
         <v>1</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="23" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="39">
+      <c r="B31" s="23">
         <v>2</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="23" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="39">
+      <c r="B32" s="23">
         <v>2</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="23" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="39">
+      <c r="B33" s="23">
         <v>2</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="23" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="39">
+      <c r="B34" s="23">
         <v>3</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="23" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="39">
+      <c r="B35" s="23">
         <v>3</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="23" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="39">
+      <c r="B36" s="23">
         <v>3</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="39">
+      <c r="B37" s="23">
         <v>3</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="23" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="39">
+      <c r="B38" s="23">
         <v>3</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="23" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="39">
+      <c r="B39" s="23">
         <v>3</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="39" t="s">
+      <c r="D39" s="23" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="39">
+      <c r="B40" s="23">
         <v>4</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="39" t="s">
+      <c r="D40" s="23" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="39">
+      <c r="B41" s="23">
         <v>4</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="39" t="s">
+      <c r="D41" s="23" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="39">
+      <c r="B42" s="23">
         <v>4</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="39" t="s">
+      <c r="D42" s="23" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="39">
+      <c r="B43" s="23">
         <v>4</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="23" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="39">
+      <c r="B44" s="23">
         <v>4</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="39" t="s">
+      <c r="D44" s="23" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="39">
+      <c r="B45" s="23">
         <v>4</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="39">
+      <c r="B46" s="23">
         <v>4</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="39" t="s">
+      <c r="D46" s="23" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="39">
+      <c r="B47" s="23">
         <v>4</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D47" s="39" t="s">
+      <c r="D47" s="23" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="39">
+      <c r="B48" s="23">
         <v>4</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D48" s="39" t="s">
+      <c r="D48" s="23" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="39">
+      <c r="B49" s="23">
         <v>4</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="39" t="s">
+      <c r="D49" s="23" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="39">
+      <c r="B50" s="23">
         <v>4</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="39" t="s">
+      <c r="D50" s="23" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="39">
+      <c r="B51" s="23">
         <v>4</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D51" s="39" t="s">
+      <c r="D51" s="23" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="39">
+      <c r="B52" s="23">
         <v>5</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D52" s="39" t="s">
+      <c r="D52" s="23" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="39">
+      <c r="B53" s="23">
         <v>5</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D53" s="39" t="s">
+      <c r="D53" s="23" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="39">
+      <c r="B54" s="23">
         <v>5</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D54" s="39" t="s">
+      <c r="D54" s="23" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="39">
+      <c r="B55" s="23">
         <v>5</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D55" s="39" t="s">
+      <c r="D55" s="23" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="39">
+      <c r="B56" s="23">
         <v>5</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D56" s="39" t="s">
+      <c r="D56" s="23" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="39">
+      <c r="B57" s="23">
         <v>5</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D57" s="39" t="s">
+      <c r="D57" s="23" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="39">
+      <c r="B58" s="23">
         <v>5</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D58" s="39" t="s">
+      <c r="D58" s="23" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="39">
+      <c r="B59" s="23">
         <v>5</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D59" s="39" t="s">
+      <c r="D59" s="23" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="39">
+      <c r="B60" s="23">
         <v>5</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D60" s="39" t="s">
+      <c r="D60" s="23" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="39">
+      <c r="B61" s="23">
         <v>6</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D61" s="39" t="s">
+      <c r="D61" s="23" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="39">
+      <c r="B62" s="23">
         <v>6</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D62" s="39" t="s">
+      <c r="D62" s="23" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="39">
+      <c r="B63" s="23">
         <v>7</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D63" s="39" t="s">
+      <c r="D63" s="23" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="39">
+      <c r="B64" s="23">
         <v>7</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="39" t="s">
+      <c r="D64" s="23" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="39">
+      <c r="B65" s="23">
         <v>7</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C65" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D65" s="39" t="s">
+      <c r="D65" s="23" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" s="39">
+      <c r="B66" s="23">
         <v>7</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D66" s="39" t="s">
+      <c r="D66" s="23" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="39">
+      <c r="B67" s="23">
         <v>7</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D67" s="39" t="s">
+      <c r="D67" s="23" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="39">
+      <c r="B68" s="23">
         <v>7</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D68" s="39" t="s">
+      <c r="D68" s="23" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="39">
+      <c r="B69" s="23">
         <v>7</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D69" s="39" t="s">
+      <c r="D69" s="23" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70" s="39">
+      <c r="B70" s="23">
         <v>8</v>
       </c>
-      <c r="C70" s="26" t="s">
+      <c r="C70" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D70" s="39" t="s">
+      <c r="D70" s="23" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71" s="39">
+      <c r="B71" s="23">
         <v>8</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D71" s="39" t="s">
+      <c r="D71" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72" s="39">
+      <c r="B72" s="23">
         <v>8</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C72" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D72" s="39" t="s">
+      <c r="D72" s="23" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="39">
+      <c r="B73" s="23">
         <v>8</v>
       </c>
-      <c r="C73" s="26" t="s">
+      <c r="C73" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D73" s="39" t="s">
+      <c r="D73" s="23" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" s="39">
+      <c r="B74" s="23">
         <v>8</v>
       </c>
-      <c r="C74" s="26" t="s">
+      <c r="C74" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D74" s="39" t="s">
+      <c r="D74" s="23" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="39">
+      <c r="B75" s="23">
         <v>8</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C75" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D75" s="39" t="s">
+      <c r="D75" s="23" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B76" s="39">
+      <c r="B76" s="23">
         <v>8</v>
       </c>
-      <c r="C76" s="26" t="s">
+      <c r="C76" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D76" s="39" t="s">
+      <c r="D76" s="23" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B77" s="39">
+      <c r="B77" s="23">
         <v>8</v>
       </c>
-      <c r="C77" s="26" t="s">
+      <c r="C77" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D77" s="39" t="s">
+      <c r="D77" s="23" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B78" s="39">
+      <c r="B78" s="23">
         <v>8</v>
       </c>
-      <c r="C78" s="26" t="s">
+      <c r="C78" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D78" s="39" t="s">
+      <c r="D78" s="23" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B79" s="39">
+      <c r="B79" s="23">
         <v>8</v>
       </c>
-      <c r="C79" s="26" t="s">
+      <c r="C79" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D79" s="39" t="s">
+      <c r="D79" s="23" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B80" s="39">
+      <c r="B80" s="23">
         <v>8</v>
       </c>
-      <c r="C80" s="26" t="s">
+      <c r="C80" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D80" s="39" t="s">
+      <c r="D80" s="23" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" s="39">
+      <c r="B81" s="23">
         <v>8</v>
       </c>
-      <c r="C81" s="26" t="s">
+      <c r="C81" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D81" s="39" t="s">
+      <c r="D81" s="23" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" s="39">
+      <c r="B82" s="23">
         <v>8</v>
       </c>
-      <c r="C82" s="26" t="s">
+      <c r="C82" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D82" s="39" t="s">
+      <c r="D82" s="23" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" s="39">
+      <c r="B83" s="23">
         <v>8</v>
       </c>
-      <c r="C83" s="26" t="s">
+      <c r="C83" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D83" s="39" t="s">
+      <c r="D83" s="23" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" s="39">
+      <c r="B84" s="23">
         <v>8</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="C84" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D84" s="39" t="s">
+      <c r="D84" s="23" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B85" s="39">
+      <c r="B85" s="23">
         <v>8</v>
       </c>
-      <c r="C85" s="26" t="s">
+      <c r="C85" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D85" s="39" t="s">
+      <c r="D85" s="23" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B86" s="39">
+      <c r="B86" s="23">
         <v>9</v>
       </c>
-      <c r="C86" s="26" t="s">
+      <c r="C86" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D86" s="39" t="s">
+      <c r="D86" s="23" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B87" s="39">
+      <c r="B87" s="23">
         <v>9</v>
       </c>
-      <c r="C87" s="26" t="s">
+      <c r="C87" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D87" s="39" t="s">
+      <c r="D87" s="23" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B88" s="39">
+      <c r="B88" s="23">
         <v>9</v>
       </c>
-      <c r="C88" s="26" t="s">
+      <c r="C88" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D88" s="39" t="s">
+      <c r="D88" s="23" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B89" s="39">
+      <c r="B89" s="23">
         <v>9</v>
       </c>
-      <c r="C89" s="26" t="s">
+      <c r="C89" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D89" s="39" t="s">
+      <c r="D89" s="23" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B90" s="39">
+      <c r="B90" s="23">
         <v>9</v>
       </c>
-      <c r="C90" s="26" t="s">
+      <c r="C90" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D90" s="39" t="s">
+      <c r="D90" s="23" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B91" s="39">
+      <c r="B91" s="23">
         <v>9</v>
       </c>
-      <c r="C91" s="26" t="s">
+      <c r="C91" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D91" s="39" t="s">
+      <c r="D91" s="23" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B92" s="39">
+      <c r="B92" s="23">
         <v>9</v>
       </c>
-      <c r="C92" s="26" t="s">
+      <c r="C92" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D92" s="39" t="s">
+      <c r="D92" s="23" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B93" s="39">
+      <c r="B93" s="23">
         <v>9</v>
       </c>
-      <c r="C93" s="26" t="s">
+      <c r="C93" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D93" s="39" t="s">
+      <c r="D93" s="23" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B94" s="39">
+      <c r="B94" s="23">
         <v>10</v>
       </c>
-      <c r="C94" s="26" t="s">
+      <c r="C94" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D94" s="39" t="s">
+      <c r="D94" s="23" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B95" s="39">
+      <c r="B95" s="23">
         <v>10</v>
       </c>
-      <c r="C95" s="26" t="s">
+      <c r="C95" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D95" s="39" t="s">
+      <c r="D95" s="23" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B96" s="39">
+      <c r="B96" s="23">
         <v>10</v>
       </c>
-      <c r="C96" s="26" t="s">
+      <c r="C96" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D96" s="39" t="s">
+      <c r="D96" s="23" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B97" s="39">
+      <c r="B97" s="23">
         <v>10</v>
       </c>
-      <c r="C97" s="26" t="s">
+      <c r="C97" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D97" s="39" t="s">
+      <c r="D97" s="23" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="39">
+      <c r="B98" s="23">
         <v>10</v>
       </c>
-      <c r="C98" s="26" t="s">
+      <c r="C98" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D98" s="39" t="s">
+      <c r="D98" s="23" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="39">
+      <c r="B99" s="23">
         <v>10</v>
       </c>
-      <c r="C99" s="26" t="s">
+      <c r="C99" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D99" s="39" t="s">
+      <c r="D99" s="23" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="39">
+      <c r="B100" s="23">
         <v>10</v>
       </c>
-      <c r="C100" s="26" t="s">
+      <c r="C100" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D100" s="39" t="s">
+      <c r="D100" s="23" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B101" s="39">
+      <c r="B101" s="23">
         <v>10</v>
       </c>
-      <c r="C101" s="26" t="s">
+      <c r="C101" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D101" s="39" t="s">
+      <c r="D101" s="23" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B102" s="39">
+      <c r="B102" s="23">
         <v>10</v>
       </c>
-      <c r="C102" s="26" t="s">
+      <c r="C102" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D102" s="39" t="s">
+      <c r="D102" s="23" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="39">
+      <c r="B103" s="23">
         <v>10</v>
       </c>
-      <c r="C103" s="26" t="s">
+      <c r="C103" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D103" s="39" t="s">
+      <c r="D103" s="23" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="39">
+      <c r="B104" s="23">
         <v>10</v>
       </c>
-      <c r="C104" s="26" t="s">
+      <c r="C104" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D104" s="39" t="s">
+      <c r="D104" s="23" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="39">
+      <c r="B105" s="23">
         <v>10</v>
       </c>
-      <c r="C105" s="26" t="s">
+      <c r="C105" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D105" s="39" t="s">
+      <c r="D105" s="23" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" s="39">
+      <c r="B106" s="23">
         <v>11</v>
       </c>
-      <c r="C106" s="26" t="s">
+      <c r="C106" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D106" s="39" t="s">
+      <c r="D106" s="23" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="39">
+      <c r="B107" s="23">
         <v>11</v>
       </c>
-      <c r="C107" s="26" t="s">
+      <c r="C107" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D107" s="39" t="s">
+      <c r="D107" s="23" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B108" s="39">
+      <c r="B108" s="23">
         <v>12</v>
       </c>
-      <c r="C108" s="26" t="s">
+      <c r="C108" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D108" s="39" t="s">
+      <c r="D108" s="23" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B109" s="39">
+      <c r="B109" s="23">
         <v>12</v>
       </c>
-      <c r="C109" s="26" t="s">
+      <c r="C109" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D109" s="39" t="s">
+      <c r="D109" s="23" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B110" s="39">
+      <c r="B110" s="23">
         <v>12</v>
       </c>
-      <c r="C110" s="26" t="s">
+      <c r="C110" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D110" s="39" t="s">
+      <c r="D110" s="23" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B111" s="39">
+      <c r="B111" s="23">
         <v>12</v>
       </c>
-      <c r="C111" s="26" t="s">
+      <c r="C111" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D111" s="39" t="s">
+      <c r="D111" s="23" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B112" s="39">
+      <c r="B112" s="23">
         <v>12</v>
       </c>
-      <c r="C112" s="26" t="s">
+      <c r="C112" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D112" s="39" t="s">
+      <c r="D112" s="23" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B113" s="39">
+      <c r="B113" s="23">
         <v>12</v>
       </c>
-      <c r="C113" s="26" t="s">
+      <c r="C113" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D113" s="39" t="s">
+      <c r="D113" s="23" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B114" s="39">
+      <c r="B114" s="23">
         <v>12</v>
       </c>
-      <c r="C114" s="26" t="s">
+      <c r="C114" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D114" s="39" t="s">
+      <c r="D114" s="23" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B115" s="39">
+      <c r="B115" s="23">
         <v>12</v>
       </c>
-      <c r="C115" s="26" t="s">
+      <c r="C115" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D115" s="39" t="s">
+      <c r="D115" s="23" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B116" s="39">
+      <c r="B116" s="23">
         <v>12</v>
       </c>
-      <c r="C116" s="26" t="s">
+      <c r="C116" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D116" s="39" t="s">
+      <c r="D116" s="23" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B117" s="39">
+      <c r="B117" s="23">
         <v>12</v>
       </c>
-      <c r="C117" s="26" t="s">
+      <c r="C117" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D117" s="39" t="s">
+      <c r="D117" s="23" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B118" s="39">
+      <c r="B118" s="23">
         <v>12</v>
       </c>
-      <c r="C118" s="26" t="s">
+      <c r="C118" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D118" s="39" t="s">
+      <c r="D118" s="23" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B119" s="39">
+      <c r="B119" s="23">
         <v>12</v>
       </c>
-      <c r="C119" s="26" t="s">
+      <c r="C119" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D119" s="39" t="s">
+      <c r="D119" s="23" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B120" s="39">
+      <c r="B120" s="23">
         <v>12</v>
       </c>
-      <c r="C120" s="26" t="s">
+      <c r="C120" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D120" s="39" t="s">
+      <c r="D120" s="23" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B121" s="39">
+      <c r="B121" s="23">
         <v>12</v>
       </c>
-      <c r="C121" s="26" t="s">
+      <c r="C121" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D121" s="39" t="s">
+      <c r="D121" s="23" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B122" s="39">
+      <c r="B122" s="23">
         <v>12</v>
       </c>
-      <c r="C122" s="26" t="s">
+      <c r="C122" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D122" s="39" t="s">
+      <c r="D122" s="23" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B123" s="39">
+      <c r="B123" s="23">
         <v>12</v>
       </c>
-      <c r="C123" s="26" t="s">
+      <c r="C123" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D123" s="39" t="s">
+      <c r="D123" s="23" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B124" s="39">
+      <c r="B124" s="23">
         <v>12</v>
       </c>
-      <c r="C124" s="26" t="s">
+      <c r="C124" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D124" s="39" t="s">
+      <c r="D124" s="23" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B125" s="39">
+      <c r="B125" s="23">
         <v>12</v>
       </c>
-      <c r="C125" s="26" t="s">
+      <c r="C125" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D125" s="39" t="s">
+      <c r="D125" s="23" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B126" s="39">
+      <c r="B126" s="23">
         <v>12</v>
       </c>
-      <c r="C126" s="26" t="s">
+      <c r="C126" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D126" s="39" t="s">
+      <c r="D126" s="23" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B127" s="39">
+      <c r="B127" s="23">
         <v>13</v>
       </c>
-      <c r="C127" s="26" t="s">
+      <c r="C127" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D127" s="39" t="s">
+      <c r="D127" s="23" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B128" s="39">
+      <c r="B128" s="23">
         <v>13</v>
       </c>
-      <c r="C128" s="26" t="s">
+      <c r="C128" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D128" s="39" t="s">
+      <c r="D128" s="23" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B129" s="39">
+      <c r="B129" s="23">
         <v>13</v>
       </c>
-      <c r="C129" s="26" t="s">
+      <c r="C129" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D129" s="39" t="s">
+      <c r="D129" s="23" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B130" s="39">
+      <c r="B130" s="23">
         <v>13</v>
       </c>
-      <c r="C130" s="26" t="s">
+      <c r="C130" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D130" s="39" t="s">
+      <c r="D130" s="23" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B131" s="39">
+      <c r="B131" s="23">
         <v>13</v>
       </c>
-      <c r="C131" s="26" t="s">
+      <c r="C131" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D131" s="39" t="s">
+      <c r="D131" s="23" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B132" s="39">
+      <c r="B132" s="23">
         <v>14</v>
       </c>
-      <c r="C132" s="26" t="s">
+      <c r="C132" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D132" s="39" t="s">
+      <c r="D132" s="23" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B133" s="39">
+      <c r="B133" s="23">
         <v>14</v>
       </c>
-      <c r="C133" s="26" t="s">
+      <c r="C133" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D133" s="39" t="s">
+      <c r="D133" s="23" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B134" s="39">
+      <c r="B134" s="23">
         <v>14</v>
       </c>
-      <c r="C134" s="26" t="s">
+      <c r="C134" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D134" s="39" t="s">
+      <c r="D134" s="23" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B135" s="39">
+      <c r="B135" s="23">
         <v>14</v>
       </c>
-      <c r="C135" s="26" t="s">
+      <c r="C135" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D135" s="39" t="s">
+      <c r="D135" s="23" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B136" s="39">
+      <c r="B136" s="23">
         <v>14</v>
       </c>
-      <c r="C136" s="26" t="s">
+      <c r="C136" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D136" s="39" t="s">
+      <c r="D136" s="23" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B137" s="39">
+      <c r="B137" s="23">
         <v>14</v>
       </c>
-      <c r="C137" s="26" t="s">
+      <c r="C137" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D137" s="39" t="s">
+      <c r="D137" s="23" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B138" s="39">
+      <c r="B138" s="23">
         <v>14</v>
       </c>
-      <c r="C138" s="26" t="s">
+      <c r="C138" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D138" s="39" t="s">
+      <c r="D138" s="23" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B139" s="39">
+      <c r="B139" s="23">
         <v>15</v>
       </c>
-      <c r="C139" s="26" t="s">
+      <c r="C139" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D139" s="39" t="s">
+      <c r="D139" s="23" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B140" s="39">
+      <c r="B140" s="23">
         <v>15</v>
       </c>
-      <c r="C140" s="26" t="s">
+      <c r="C140" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D140" s="39" t="s">
+      <c r="D140" s="23" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B141" s="39">
+      <c r="B141" s="23">
         <v>15</v>
       </c>
-      <c r="C141" s="26" t="s">
+      <c r="C141" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D141" s="39" t="s">
+      <c r="D141" s="23" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B142" s="39">
+      <c r="B142" s="23">
         <v>15</v>
       </c>
-      <c r="C142" s="26" t="s">
+      <c r="C142" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D142" s="39" t="s">
+      <c r="D142" s="23" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B143" s="39">
+      <c r="B143" s="23">
         <v>15</v>
       </c>
-      <c r="C143" s="26" t="s">
+      <c r="C143" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D143" s="39" t="s">
+      <c r="D143" s="23" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B144" s="39">
+      <c r="B144" s="23">
         <v>15</v>
       </c>
-      <c r="C144" s="26" t="s">
+      <c r="C144" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D144" s="39" t="s">
+      <c r="D144" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B145" s="39">
+      <c r="B145" s="23">
         <v>15</v>
       </c>
-      <c r="C145" s="26" t="s">
+      <c r="C145" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D145" s="39" t="s">
+      <c r="D145" s="23" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B146" s="39">
+      <c r="B146" s="23">
         <v>15</v>
       </c>
-      <c r="C146" s="26" t="s">
+      <c r="C146" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D146" s="39" t="s">
+      <c r="D146" s="23" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B147" s="39">
+      <c r="B147" s="23">
         <v>15</v>
       </c>
-      <c r="C147" s="26" t="s">
+      <c r="C147" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D147" s="39" t="s">
+      <c r="D147" s="23" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B148" s="39">
+      <c r="B148" s="23">
         <v>15</v>
       </c>
-      <c r="C148" s="26" t="s">
+      <c r="C148" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D148" s="39" t="s">
+      <c r="D148" s="23" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B149" s="39">
+      <c r="B149" s="23">
         <v>15</v>
       </c>
-      <c r="C149" s="26" t="s">
+      <c r="C149" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D149" s="39" t="s">
+      <c r="D149" s="23" t="s">
         <v>216</v>
       </c>
     </row>
